--- a/非受控文档/任务分配/11-21任务.xlsx
+++ b/非受控文档/任务分配/11-21任务.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sprou\Desktop\done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sprou\Desktop\任务检查\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78D4621B-D9DD-442E-BFDB-4476CEEC9B34}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708F42BA-83D4-4EBB-B673-8D1A76BB7C0C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13590" xr2:uid="{2F13E8BF-C947-4C6A-8E19-29018A8A93AF}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="55">
   <si>
     <t>可行性分析报告</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wbs按照项目的五个过程及需求两个过程重新定义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>甘特图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>同上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>邀请函</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,6 +164,86 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组内需求工程项目计划评审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求工程项目计划发布baseline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求工程项目计划待评审版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原本对三种方案的理解有误，将所建议系统方案移到可选系统方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原本对三种方案的理解有误，修改现有系统分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原本对三种方案的理解有误，修改所建议系系统分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将工作分解按照项目的五个过程及需求两个过程重新定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wbs修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将甘特图按照项目的五个过程及需求两个过程重新定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘特图修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据上课其他组评审情况重写范围管理计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新明确OBS结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充之前的任务分工中的检查模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制系统上下文图（定义用户类型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制系统关联图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绘制生态系统图（定义系统在大环境中的位置）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户代表邀请函的制作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -218,12 +290,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7799127D-2353-44AC-A801-64F8F7DBFD68}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -552,29 +630,41 @@
     <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -582,203 +672,311 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>15</v>
-      </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.2">
       <c r="D18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
